--- a/data/excel/ManageLogicalFare_OMF.xlsx
+++ b/data/excel/ManageLogicalFare_OMF.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9B5E26-AAF6-4136-A4BA-EBE1CEBB725A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788D9941-4A7A-413D-8E31-91F47412CE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="108">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>CorporateSBT</t>
+  </si>
+  <si>
+    <t>Admin@456</t>
   </si>
 </sst>
 </file>
@@ -1745,8 +1748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFD037D-C8F3-4198-9319-0F49250107C1}">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="AZ18" sqref="AZ18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4717,10 +4720,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69431F53-8941-4E3A-87CB-6F9ADB783E3C}">
-  <dimension ref="A1:AN3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4734,39 +4737,24 @@
     <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4795,100 +4783,52 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>43</v>
+        <v>64</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN1" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -4916,101 +4856,53 @@
       <c r="I2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2">
-        <v>10</v>
-      </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2">
-        <v>10</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="J2" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN2" s="10" t="s">
+      <c r="M2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>73</v>
       </c>
@@ -5038,136 +4930,73 @@
       <c r="I3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3">
-        <v>10</v>
-      </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3">
-        <v>10</v>
-      </c>
-      <c r="X3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN3" s="10" t="s">
+      <c r="M3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="10" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V3 Y2:Y3" xr:uid="{CCB7E835-7034-4EBD-9700-F03FAEFBFB4B}">
-      <formula1>"Base Fare,Base Fare + Tax,Base Fare + YQ,Base Fare + YQ+YR,Net Fare(Tax Inclusive),Net Fare(Tax Exclusive)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3 X2:X3" xr:uid="{698471EF-A1C0-4212-8FAB-1FA2D56A2CF7}">
-      <formula1>"% (Percent),% Markup,Fixed Amount"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S3" xr:uid="{0086EB8C-8206-495B-98A7-4068C787F5E3}">
-      <formula1>"Agreement Fee,Agreement Markup"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{258B7662-54F9-4560-A747-F32E57B2E366}">
-      <formula1>"Flight,Hotel"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3" xr:uid="{EB6E9EF6-D4BB-4DD3-9235-8DBE72EA2229}">
-      <formula1>"Flight,Hotel,All"</formula1>
-    </dataValidation>
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{8221445D-709B-47DB-A773-7EBE1C8393DE}">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{D13B5283-4AC8-461F-96A2-18F80651AAEE}">
       <formula1>"at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z3" xr:uid="{7B852B0F-6B3F-4309-96BD-334C2BBC08E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{7B852B0F-6B3F-4309-96BD-334C2BBC08E4}">
       <formula1>"AsPerTravelPolicy,AsPerPrefferedFlightTiming"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AB3" xr:uid="{B1186749-B494-4025-98DB-72C3E3219EAF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L3" xr:uid="{B1186749-B494-4025-98DB-72C3E3219EAF}">
       <formula1>"Domestic,International,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC3 AF2:AF3 AI2:AI3 AL2:AL3" xr:uid="{D501A0BE-6E67-4E7D-A6CE-B18C95FC6553}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M3 P2:P3 S2:S3 V2:V3" xr:uid="{D501A0BE-6E67-4E7D-A6CE-B18C95FC6553}">
       <formula1>"HH,00,01,02,03,04,05,06,07,08,09,10,11,12,13,14,15,16,17,18,19,20,21,22,23"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD3 AG2:AG3 AJ2:AJ3 AM2:AM3" xr:uid="{3D9E2333-61EC-4C64-A09B-158A477D73DD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3 Q2:Q3 T2:T3 W2:W3" xr:uid="{3D9E2333-61EC-4C64-A09B-158A477D73DD}">
       <formula1>"MM,00,01,02,03,04,05,06,07,08,09,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE3 AH2:AH3 AK2:AK3 AN2:AN3" xr:uid="{02A2AFEE-6D63-4971-B640-096B92409D20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3 R2:R3 U2:U3 X2:X3" xr:uid="{02A2AFEE-6D63-4971-B640-096B92409D20}">
       <formula1>"HH,01,02,03,04,05,06,07,08,09,10,11,12,13,14,15,16,17,18,19,20,21,22,23"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{E499AA49-DCEC-4BA5-B72F-9F9F9A4B683D}">
@@ -5189,10 +5018,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB9EF86E-3449-4D66-96D9-71AECEE5574C}">
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P1" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5206,7 +5035,7 @@
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -5238,7 +5067,7 @@
     <col min="40" max="40" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5267,100 +5096,52 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>43</v>
+        <v>64</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN1" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -5383,153 +5164,90 @@
         <v>77</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2">
-        <v>10</v>
-      </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2">
-        <v>10</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="J2" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
         <v>70</v>
       </c>
-      <c r="AB2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN2" s="10" t="s">
+      <c r="M2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="10" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2 AH2 AK2 AN2" xr:uid="{6CC8BB2E-B338-4786-BFC8-AE5A538224A9}">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 R2 U2 X2" xr:uid="{6DA98CB0-9BC7-473D-9D63-D0329A653C2E}">
       <formula1>"HH,01,02,03,04,05,06,07,08,09,10,11,12,13,14,15,16,17,18,19,20,21,22,23"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2 AG2 AJ2 AM2" xr:uid="{38894160-7CE6-4748-88BF-14297D986085}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 Q2 T2 W2" xr:uid="{24A48773-1D3A-4099-B784-BFE95B4FA9EB}">
       <formula1>"MM,00,01,02,03,04,05,06,07,08,09,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2 AF2 AI2 AL2" xr:uid="{2175467C-5ACE-4EB0-AA1E-216455F53663}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 P2 S2 V2" xr:uid="{F123A96C-E2E0-4793-BB9B-686614A99343}">
       <formula1>"HH,00,01,02,03,04,05,06,07,08,09,10,11,12,13,14,15,16,17,18,19,20,21,22,23"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AB2" xr:uid="{13A04EB9-8D6D-4B53-89CE-CD80087EBF77}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L2" xr:uid="{E0D0DD3D-9DBB-4E6F-B0E2-7DDBFA8E0D14}">
       <formula1>"Domestic,International,All"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2" xr:uid="{00F45EFD-349D-44FC-BF02-8544B570113F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{9925EACF-C443-430C-A883-17321C420323}">
       <formula1>"AsPerTravelPolicy,AsPerPrefferedFlightTiming"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{0F137637-90BF-4406-830A-08F7D14DF2B5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{354615C8-68E3-45A1-89DE-398DCE29D371}">
       <formula1>"at"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{3C0D4BDE-3342-43A6-8522-2CB76F25F837}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{A66BE3C0-5256-41D7-BAF8-9A9117FEED68}">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{8FBE1FD3-8E22-46EE-B478-B8E227956017}">
-      <formula1>"Flight,Hotel,All"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{EDF61E70-CBEF-407B-867E-A27A6E1A1854}">
-      <formula1>"Flight,Hotel"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2" xr:uid="{6398F095-6903-4CC2-938F-5B185EDC5A91}">
-      <formula1>"Agreement Fee,Agreement Markup"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2 X2" xr:uid="{142A6818-E9AF-4597-A6AF-94AB9DD4EA71}">
-      <formula1>"% (Percent),% Markup,Fixed Amount"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2 Y2" xr:uid="{B57D9948-8609-4E88-9DFA-D4E22A0FD8B2}">
-      <formula1>"Base Fare,Base Fare + Tax,Base Fare + YQ,Base Fare + YQ+YR,Net Fare(Tax Inclusive),Net Fare(Tax Exclusive)"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{7BADE859-EC92-4407-BE67-BE97E2EE5944}">
-      <formula1>"Laxmi@1234,Quad@721,Admin@123"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{FB4867C2-177F-4D9F-9603-B36A00FAAE03}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{9820988A-3180-4F2C-AA26-2A148B994A51}">
+      <formula1>"Laxmi@1234,Quad@721,Admin@456"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{23352B8F-A7C5-48F0-9680-27F4C34F3158}">
       <formula1>"saurav_at,ankur_at"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{390E823E-2447-4643-A345-D5FB6E9E15BE}"/>
-    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{2E8EA149-8B03-4D70-B281-5BDE9341C7D4}"/>
+    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com" xr:uid="{AC5207D1-B3D8-4C03-9784-5AF4B49680A9}"/>
+    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@" xr:uid="{9A4519CE-FFA1-4026-BAD3-0EBD721DC282}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
